--- a/study01/report/motivation/perceived-choice/MeasurementModel.xlsx
+++ b/study01/report/motivation/perceived-choice/MeasurementModel.xlsx
@@ -4668,28 +4668,28 @@
         <v>31</v>
       </c>
       <c r="B33" t="n" s="270">
-        <v>0.6262925077539949</v>
+        <v>0.6014580520507862</v>
       </c>
       <c r="C33" t="n" s="271">
-        <v>-1.573822150325187</v>
+        <v>-1.7070875206912792</v>
       </c>
       <c r="D33" t="n" s="272">
-        <v>0.11552857168632909</v>
+        <v>0.08780578627116602</v>
       </c>
       <c r="E33" t="n" s="273">
-        <v>1.0</v>
+        <v>0.7902520764404941</v>
       </c>
       <c r="F33" t="n" s="274">
-        <v>0.7086478971797864</v>
+        <v>0.673769317847337</v>
       </c>
       <c r="G33" t="n" s="275">
-        <v>-1.5514846416924868</v>
+        <v>-1.7643470285331908</v>
       </c>
       <c r="H33" t="n" s="276">
-        <v>0.12078558509334954</v>
+        <v>0.07767357068525967</v>
       </c>
       <c r="I33" t="n" s="277">
-        <v>0.6039279254667477</v>
+        <v>0.3883678534262983</v>
       </c>
     </row>
     <row r="34">
@@ -4697,25 +4697,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="n" s="270">
-        <v>1.016874096701148</v>
+        <v>1.0116912303081411</v>
       </c>
       <c r="C34" t="n" s="271">
-        <v>0.11784457515400222</v>
+        <v>0.09249072447278091</v>
       </c>
       <c r="D34" t="n" s="272">
-        <v>0.9061908097303518</v>
+        <v>0.9263081604313111</v>
       </c>
       <c r="E34" t="n" s="273">
         <v>1.0</v>
       </c>
       <c r="F34" t="n" s="274">
-        <v>1.0818833417002216</v>
+        <v>1.0697052350962977</v>
       </c>
       <c r="G34" t="n" s="275">
-        <v>0.47576838766456303</v>
+        <v>0.41513666921770553</v>
       </c>
       <c r="H34" t="n" s="276">
-        <v>0.6342393936274588</v>
+        <v>0.6780418569993765</v>
       </c>
       <c r="I34" t="n" s="277">
         <v>1.0</v>
@@ -4726,28 +4726,28 @@
         <v>33</v>
       </c>
       <c r="B35" t="n" s="270">
-        <v>1.3579364243688323</v>
+        <v>1.352559647602822</v>
       </c>
       <c r="C35" t="n" s="271">
-        <v>1.4942151168532707</v>
+        <v>1.4844305441105714</v>
       </c>
       <c r="D35" t="n" s="272">
-        <v>0.13511940271885997</v>
+        <v>0.13769473661734416</v>
       </c>
       <c r="E35" t="n" s="273">
         <v>1.0</v>
       </c>
       <c r="F35" t="n" s="274">
-        <v>1.2949346092772074</v>
+        <v>1.2824455790938138</v>
       </c>
       <c r="G35" t="n" s="275">
-        <v>1.4951022098135434</v>
+        <v>1.4402787626027356</v>
       </c>
       <c r="H35" t="n" s="276">
-        <v>0.13488776925904158</v>
+        <v>0.14978854740080158</v>
       </c>
       <c r="I35" t="n" s="277">
-        <v>0.6039279254667477</v>
+        <v>0.5991541896032063</v>
       </c>
     </row>
     <row r="36">
@@ -4755,25 +4755,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="n" s="270">
-        <v>1.0382886098183466</v>
+        <v>1.0311978171578329</v>
       </c>
       <c r="C36" t="n" s="271">
-        <v>0.2173371012345525</v>
+        <v>0.18198927374234516</v>
       </c>
       <c r="D36" t="n" s="272">
-        <v>0.8279456454276705</v>
+        <v>0.8555911436490344</v>
       </c>
       <c r="E36" t="n" s="273">
         <v>1.0</v>
       </c>
       <c r="F36" t="n" s="274">
-        <v>1.0892109645242558</v>
+        <v>1.0870204256781373</v>
       </c>
       <c r="G36" t="n" s="275">
-        <v>0.5068604455972963</v>
+        <v>0.4903477664653685</v>
       </c>
       <c r="H36" t="n" s="276">
-        <v>0.6122527408432533</v>
+        <v>0.6238878316509626</v>
       </c>
       <c r="I36" t="n" s="277">
         <v>1.0</v>
@@ -4784,25 +4784,25 @@
         <v>35</v>
       </c>
       <c r="B37" t="n" s="270">
-        <v>0.9037938204432753</v>
+        <v>0.9038821429905707</v>
       </c>
       <c r="C37" t="n" s="271">
-        <v>-0.3639449402667842</v>
+        <v>-0.3529097339600874</v>
       </c>
       <c r="D37" t="n" s="272">
-        <v>0.7158991250511653</v>
+        <v>0.7241561131363232</v>
       </c>
       <c r="E37" t="n" s="273">
         <v>1.0</v>
       </c>
       <c r="F37" t="n" s="274">
-        <v>0.8385156083143378</v>
+        <v>0.850055545586353</v>
       </c>
       <c r="G37" t="n" s="275">
-        <v>-0.8257518942226377</v>
+        <v>-0.7563360379497676</v>
       </c>
       <c r="H37" t="n" s="276">
-        <v>0.4089448478622203</v>
+        <v>0.4494477464106885</v>
       </c>
       <c r="I37" t="n" s="277">
         <v>1.0</v>
@@ -4813,28 +4813,28 @@
         <v>56</v>
       </c>
       <c r="B38" t="n" s="270">
-        <v>1.693277928636925</v>
+        <v>1.6374896706926012</v>
       </c>
       <c r="C38" t="n" s="271">
-        <v>1.2725422174436136</v>
+        <v>1.2009105370426534</v>
       </c>
       <c r="D38" t="n" s="272">
-        <v>0.20318053402636546</v>
+        <v>0.22978590642383245</v>
       </c>
       <c r="E38" t="n" s="273">
         <v>1.0</v>
       </c>
       <c r="F38" t="n" s="274">
-        <v>1.5740970422345328</v>
+        <v>1.5393660528716517</v>
       </c>
       <c r="G38" t="n" s="275">
-        <v>7.124516656735406</v>
+        <v>6.76341282760015</v>
       </c>
       <c r="H38" t="n" s="276">
-        <v>1.0444655930546309E-12</v>
+        <v>1.3477848151602044E-11</v>
       </c>
       <c r="I38" t="n" s="277">
-        <v>7.311259151382416E-12</v>
+        <v>9.43449370612143E-11</v>
       </c>
     </row>
     <row r="39">
@@ -4842,28 +4842,28 @@
         <v>57</v>
       </c>
       <c r="B39" t="n" s="270">
-        <v>1.5625796506815184</v>
+        <v>1.5327945062303825</v>
       </c>
       <c r="C39" t="n" s="271">
-        <v>1.3458100944018476</v>
+        <v>1.287499296467335</v>
       </c>
       <c r="D39" t="n" s="272">
-        <v>0.17836376913620505</v>
+        <v>0.1979203146602668</v>
       </c>
       <c r="E39" t="n" s="273">
         <v>1.0</v>
       </c>
       <c r="F39" t="n" s="274">
-        <v>1.5564206636856786</v>
+        <v>1.5359239480086344</v>
       </c>
       <c r="G39" t="n" s="275">
-        <v>8.153292393539294</v>
+        <v>7.881545937056608</v>
       </c>
       <c r="H39" t="n" s="276">
-        <v>3.5414796806394544E-16</v>
+        <v>3.2335519322907206E-15</v>
       </c>
       <c r="I39" t="n" s="277">
-        <v>3.1873317125755087E-15</v>
+        <v>2.9101967390616483E-14</v>
       </c>
     </row>
     <row r="40">
@@ -4871,28 +4871,28 @@
         <v>58</v>
       </c>
       <c r="B40" t="n" s="270">
-        <v>1.3699510249472382</v>
+        <v>1.3565762987377097</v>
       </c>
       <c r="C40" t="n" s="271">
-        <v>0.919316521258043</v>
+        <v>0.8900385347131298</v>
       </c>
       <c r="D40" t="n" s="272">
-        <v>0.3579300387828671</v>
+        <v>0.37344519502984125</v>
       </c>
       <c r="E40" t="n" s="273">
         <v>1.0</v>
       </c>
       <c r="F40" t="n" s="274">
-        <v>1.3991472317604967</v>
+        <v>1.396201019517139</v>
       </c>
       <c r="G40" t="n" s="275">
-        <v>7.387927149672111</v>
+        <v>7.347372118316417</v>
       </c>
       <c r="H40" t="n" s="276">
-        <v>1.4913540928475788E-13</v>
+        <v>2.0214153553154876E-13</v>
       </c>
       <c r="I40" t="n" s="277">
-        <v>1.193083274278063E-12</v>
+        <v>1.61713228425239E-12</v>
       </c>
     </row>
     <row r="41">
@@ -4900,28 +4900,28 @@
         <v>59</v>
       </c>
       <c r="B41" t="n" s="270">
-        <v>1.6854835417808365</v>
+        <v>1.6799793847628168</v>
       </c>
       <c r="C41" t="n" s="271">
-        <v>0.9403944381498064</v>
+        <v>0.9871113150884159</v>
       </c>
       <c r="D41" t="n" s="272">
-        <v>0.34701527406020166</v>
+        <v>0.3235880713404073</v>
       </c>
       <c r="E41" t="n" s="273">
         <v>1.0</v>
       </c>
       <c r="F41" t="n" s="274">
-        <v>1.7433598059978916</v>
+        <v>1.747129298841658</v>
       </c>
       <c r="G41" t="n" s="275">
-        <v>13.590251744122948</v>
+        <v>13.586193063805938</v>
       </c>
       <c r="H41" t="n" s="276">
-        <v>4.575040885308555E-42</v>
+        <v>4.8358718155608484E-42</v>
       </c>
       <c r="I41" t="n" s="277">
-        <v>4.575040885308555E-41</v>
+        <v>4.835871815560848E-41</v>
       </c>
     </row>
     <row r="42">
@@ -4929,28 +4929,28 @@
         <v>60</v>
       </c>
       <c r="B42" t="n" s="270">
-        <v>1.2494708829294896</v>
+        <v>1.2214812816512428</v>
       </c>
       <c r="C42" t="n" s="271">
-        <v>1.9991725538656773</v>
+        <v>2.387690935571431</v>
       </c>
       <c r="D42" t="n" s="272">
-        <v>0.045589687091686745</v>
+        <v>0.016954593186998698</v>
       </c>
       <c r="E42" t="n" s="273">
-        <v>0.4558968709168675</v>
+        <v>0.16954593186998698</v>
       </c>
       <c r="F42" t="n" s="274">
-        <v>1.4289695261503736</v>
+        <v>1.4153482550237972</v>
       </c>
       <c r="G42" t="n" s="275">
-        <v>4.6371195812722545</v>
+        <v>4.495855337359226</v>
       </c>
       <c r="H42" t="n" s="276">
-        <v>3.5329803448450273E-6</v>
+        <v>6.929083587146743E-6</v>
       </c>
       <c r="I42" t="n" s="277">
-        <v>2.1197882069070163E-5</v>
+        <v>4.1574501522880454E-5</v>
       </c>
     </row>
     <row r="43">
